--- a/others/Grupo Desafio.xlsx
+++ b/others/Grupo Desafio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rogerio.oliveira\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA1B3377-D914-46FF-AB2A-DD6326040EB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5369961C-AC20-4A67-B9FA-7FAD37C5B7D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -843,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F00E39D1-25C1-4F24-B970-937C9F3AA774}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,6 +865,9 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
+      <c r="B2" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -875,21 +878,33 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
+      <c r="B4" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>52</v>
       </c>
+      <c r="B5" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>38</v>
       </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>39</v>
       </c>
+      <c r="B7" s="2">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -905,6 +920,9 @@
       <c r="A10" t="s">
         <v>1</v>
       </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -961,6 +979,9 @@
       <c r="A20" t="s">
         <v>15</v>
       </c>
+      <c r="B20" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -974,6 +995,9 @@
       <c r="A22" t="s">
         <v>34</v>
       </c>
+      <c r="B22" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1017,6 +1041,9 @@
       <c r="A30" t="s">
         <v>37</v>
       </c>
+      <c r="B30" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -1046,6 +1073,9 @@
       <c r="A34" t="s">
         <v>50</v>
       </c>
+      <c r="B34" s="2">
+        <v>10</v>
+      </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -1077,6 +1107,9 @@
       <c r="A39" t="s">
         <v>40</v>
       </c>
+      <c r="B39" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -1108,6 +1141,9 @@
       <c r="A44" t="s">
         <v>43</v>
       </c>
+      <c r="B44" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -1118,6 +1154,9 @@
       <c r="A46" t="s">
         <v>41</v>
       </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1129,27 +1168,36 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>20</v>
       </c>
